--- a/500all/speech_level/speeches_CHRG-114hhrg92845.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg92845.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. The subcommittee will come to order.    I would like to thank Chairman Shuster for the opportunity to serve again as chairman of this subcommittee.    Ranking Member Carson, welcome back.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
-    <t>André Carson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Fugate</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fugate. Well, thank you, Chairman Barletta and Ranking Member Carson and other members of the committee. In my written statements, I talked about some of the things we have been working on since the Sandy Recovery Improvement Act passed. Mr. Chairman of this committee, I have to say, you helped us address many issues that have come up repeatedly.    First off, I have to recognize the fact that you provided us the authority to recognize the tribal governments as an entity that could deal directly with the President in requesting disaster declarations, something they had sought for a long time. This committee ensured that became part of the legislation, and we have implemented it.    You have also given us tools that we had identified through pilots and lessons learned in managing debris, but also in making sure that as we begin the process of rebuilding, we are able to speed up the process of identifying those large projects, obligating monies, and allowing more discretion to State and local officials on how to build back better. That was an important tool that we began using as far back as some damage from Hurricane Irene with the State of Vermont, and it has given us flexibility that States and local governments have asked for in building back better and building back to the future.    The trends and disasters are not surprising to me. With an aging infrastructure, a concentration of populations in highly vulnerable areas that fortunately don't have a lot of disasters, but when they do occur, the costs are substantial. Particularly, when you look at what happens when the number of public buildings that are under or uninsured are damaged or destroyed. I think things such as dealing with individual losses that weren't insured, dealing with debris cost, dealing with response cost are always going to be part of the formula.    But when you look at, most recently in Sandy, the billion dollars and more in some projects we are having to pay to rebuild structures, it is important for us to make sure that in the future we have built back those structures to where they are insurable and look at making sure that the insurance provisions are more strenuously applied and less opportunities to allow structures to come back for repeated assistance because they weren't insured.    We firmly believe that we should do more diligent work with our State and local partners to ensure that when we build back we just don't look at old data, we just don't use cost-benefit analysis, that don't account for the future. But we also think we need to engage the private sector more strongly in ensuring risk. And in those areas where the private sector cannot insure that risk, ask hard questions, as you have pointed out, should we build back where we were, should we build back the way it was, or do we need to change? Because if anything, we know that many areas are subject to repeated disasters.    I personally went into Arkansas last year to see damage from a tornado. I saw a school, fortunately not occupied, nearly completed, that was destroyed. I was informed by our staff from the regional office that that school was being rebuilt from a 2010 tornado where it had been destroyed. It was destroyed again.    What really troubled me was we did not have an opportunity or did not seek the opportunity to make sure that school had safe rooms in it. And we have committed to and have now established that in tornado-prone areas, when we are dealing with schools and other public structures, that we will find a way to make sure that we fund safe rooms to protect children during tornadoes.    So you have given us a lot of tools, many of which are still in the implementation phase. Some of them have not gone as fast as I would like. Part of it was the implementation and getting buy-in from our partners at the State and local level, but I am seeing early success. And I think it will be a good discussion to have with you and the committee over our findings, our challenges, and where success is taking place.    I firmly believe that the role of the Federal Government is to support and not supplant our local officials, that FEMA is a support agency, and the cost of disasters is a shared responsibility. But I do think it is appropriate that when disasters exceed the capabilities of State and local governments that we must be there to support them, not only the initial response but to ensure successful recovery.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -127,9 +118,6 @@
     <t>412621</t>
   </si>
   <si>
-    <t>Carlos Curbelo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you, Mr. Chairman.    Administrator Fugate, thank you for your presence here this morning, and thank you for your service to the people of Florida over so many years. We remember you very fondly and we miss you at times, so thank you very much.    I represent south Florida where a large portion of my district lives on or near the coast. One of the constant worries I hear from my constituents back home, especially in the Florida Keys, is the need to reform the National Flood Insurance Program. I am a cosponsor of the Flood Insurance Premium Parody Act, a bill which would extend the recent NFIP reforms to business properties and owner-occupied second homes. And I feel it is critical these properties receive the same relief already provided to residential properties and single-family homes afforded to them under the Biggert-Waters Act of 2012.    Can you share your thoughts on what best can be done to provide affordable flood insurance for my constituents? Do you feel that we should apply to commercial properties and second homes the same formula for yearly rate increases received by residential properties?</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Barletta. I am glad to see you back in the chair.    Mr. Fugate, the Nation's Capital barely escaped Sandy. We were very grateful, just like we escaped the snowfall this time. All the scientists tell us that we are headed for major disasters. They tell us that there is no longer debate about whether there is climate change but only about how to manage climate change. And so I am interested in issues, and I will be talking to the next panel about predisaster mitigation. The Member was asking about Florida. I noticed that they are building right in the ocean virtually but trying to do some predisaster mitigation as they do.    FEMA has been helpful here in what we have been trying to do with the so-called 17th Street levee on the Mall. Without that levee, the Washington Monument and indeed the entire monumental core would be exposed to horrific flooding. Rebuilding downtown Washington and the monumental core, and those steps would have been taken. I certainly hope, since steps have been taken--and that levee was done before the final word was in on climate change--I would be interested in your view as to whether or not you think that levee could forestall a seriously Sandy-like storm.    But I am also, because it has taken so long, interested in the drawing of the flood maps. As I understand, and this is what gives Government a bad name, the work of the Army Corps of Engineers for certification is done separately from FEMA or from other agencies. Why can't that work be done concurrently so that they look to see that the levee is constructed properly and they go get on with the next step, rather than in some sequential fashion which assures it will be delayed?</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Administrator Fugate, I recall, as a county commissioner, following either before or just following a storm of a significant magnitude, speaking with my emergency services department and them describing the various obligations that they needed to undertake to apply for and ultimately process an application for FEMA disaster assistance grants or grant.    The question is, in looking at the recent GAO report, FEMA was criticized for the significant costs they incurred to administer disaster assistant grants. My question, what is FEMA doing to reduce its own administrative costs as well as the administrative burden often placed on States and locals who are trying to get the assistance to where it is needed for recovery?</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t xml:space="preserve">    Mr. Barletta. Thank you, Mr. Fugate, for your testimony today. Your comments have been helpful to today's discussion. And I look forward to working with you on our legislation. Your input and support is vital to getting it right and getting it signed into law. So thank you.    We will now call our second panel. And I remind you of the subcommittee's request to limit your oral testimony to 5 minutes. And we will let our panel get in place.    Mr. McCarthy, you may proceed.</t>
   </si>
   <si>
-    <t>McCarthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCarthy. Thank you, Mr. Chairman. I am privileged to appear before you today----</t>
   </si>
   <si>
@@ -301,9 +280,6 @@
     <t xml:space="preserve">    Mr. Barletta. Unfortunately, we are going to have to pass that one over there. Thank you.</t>
   </si>
   <si>
-    <t>Paulison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Paulison. Now we will see if we can get this one to work.    Anyway, the leadership this subcommittee and Chairman Shuster have shown on these tough issues is critical. Your mission is clear: We must find a way to bend the cost curve of disasters for American taxpayers. In pursuit of this mission, I believe we can save additional lives and do a much better job of protecting property.    My name is David Paulison. I am the senior partner of Global Emergency Solutions. I was proud to have spent 7 years in the Federal service of our Nation, and I served as the FEMA Administrator from 2005 to 2009. I began my 30-year career as a rescue firefighter and rose through the ranks to become the chief of the Miami-Dade Fire Department. As a result, I have had a front-row seat as to how we as a Nation prepare for and deal with disasters.    While I have seen many tremendous public servants at work, I have also witnessed unfortunate policy errors and wasted taxpayer dollars. In most cases, this waste was a result of insufficient investment in mitigation before the disaster hit. Not enough resources are being allocated in predisaster mitigation.    I believe this new Congress has a golden opportunity to advance a bipartisan natural disaster strategy that would better protect the American people, property, and save taxpayer dollars. With the Senate and the House of Representatives working together across party lines, now is the time to address the failed status quo of waiting for storms to hit and then passing massive supplemental appropriation bills.    Director Fugate has done a tremendous job of fostering resiliency and a community-oriented approach to emergency management since he took the reins of FEMA. However, I am sure even Director Fugate would admit there is still much work to be done to build a more resilient country by shifting more money to predisaster Federal incentive programs. Hopefully, understanding the realities of the exploding costs can serve as a motivator.    Mr. Chairman, any attempt to change the status quo must ultimately begin with an understanding of the nature of the problem. This is why I believe your subcommittee's work can play a major role. First, let me describe the nature of the problem we face. And I brought just two slides along.    According to FEMA, Federal major disaster declarations have jumped from a yearly average of 23 under President Reagan to an average of 65 under President Obama. The trend is undeniable but also nonpartisan, as the average number of disaster declarations per year has risen under President George H.W. Bush, President Clinton, and President George W. Bush.</t>
   </si>
   <si>
@@ -313,16 +289,10 @@
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Paulison.    Mr. Koon, you may proceed.</t>
   </si>
   <si>
-    <t>Koon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Koon. Thank you, Chairman Barletta, Ranking Member Carson, and members of the subcommittee, for holding this hearing today.    The statement for the record we submitted goes into specific details on many issues regarding how to lessen the impacts and costs of disasters. But for now I will cover the current state of disasters, efforts we are working on with FEMA, and ongoing concerns with the systems of management costs and deobligations.    As you have already heard, the number and nature of presidentially declared disasters has varied widely over time. Of course, examining Presidential declarations provides only a glimpse of the true disaster response activity in this country. The majority of events are handled at the State or local level and do not warrant Federal assistance. In fiscal year 2013, there were 205 gubernatorial declarations and over 18,000 events requiring State assets. In addition to that, local and tribal governments responded to nearly 31,000 additional events that year. Without a strong emergency management system at the State, local and tribal levels, many of the nearly 50,000 State and local responses would falter or require Federal support.    That Federal support comes in the form of public assistance, which amounts to half of the total funds allocated to the Disaster Relief Fund. In order to ensure the most effective use of those funds and in response to numerous Government audits, last year FEMA initiated an internal study of its PA program. In the coming weeks, the agency will share data from the study with the States, with the desired goal of an agreed-upon, redesigned PA program that meets the needs of all stakeholders.    A redesigned PA program which streamlines efforts will also assist in reducing and appropriately allocating those administrative costs identified by GAO in a report last month. The report highlights the continuing increase of FEMA's administrative costs as a percentage of the DRF, which averaged 13 percent over the last 10 fiscal years, while less than 2 percent was apportioned for grantees and subgrantees. This has been an area of great frustration and concern to the States and certainly needs further examination.    We hope that an improved PA process will also reduce the opportunity for future audits and deobligations by simplifying and standardizing efforts across the country and reducing the time necessary to close disasters. The current rate of deobligations causes significant economic hardship to the States and communities that have expended those funds long ago and requires significant staff time that would be better spent preparing for future disasters.    Reducing administrative expenditures from the DRF would also allow the Nation to explore alternative uses for these funds, such as increasing resiliency by identifying, incentivizing, and funding additional mitigation opportunities across the country. These resiliency efforts will ultimately reduce our disaster costs in the long term.    NEMA intends to continue conversations on all of these issues at our midyear forum in March, utilizing the combined efforts of our Legislative and Response and Recovery Committees to explore alternatives and make recommendations to you.    The subcommittee and Congress as a whole have gone to great lengths to continually try and improve disaster response processes. Efforts such as the Sandy Recovery Improvement Act and H.R. 3300, which supported programs like EMAC, USAR teams, and IPAWS, provide opportunities to drive down the cost of disasters. But without a comprehensive look at some of our administrative issues as well, we will continue to falter in our mission.    Only through an effective response and subsequent recovery can we work toward building more resilient communities, reducing the overall cost of disasters to States and the Federal Government, and ultimately save more lives and property from damage.    I look forward to our continued partnership in these efforts and welcome any questions you have for me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Koon.    Mr. Fennessy, you may proceed.</t>
-  </si>
-  <si>
-    <t>Fennessy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Fennessy. Thank you. Good morning, Chairman Barletta, Ranking Member Carson, and members of the subcommittee.    I am Brian Fennessy, assistant fire chief of emergency operations of the San Diego Fire-Rescue Department. Today, I am testifying on behalf of the International Association of Fire Chiefs, where I serve on their Wildland Fire Policy Committee. Thank you for the opportunity to discuss FEMA's role in helping communities respond to and recover from wildland fires.    In 2013, wildland fires impacted every State in the Nation. There were more than 47,500 wildland fires in the United States. They burned roughly 4.3 million acres. These fires cost the Federal Government over $1.7 billion to extinguish.    Local fire departments respond to most wildland fire incident. For fires on Federal lands, they cooperate with the U.S. Department of Interior and the U.S. Department of Agriculture's U.S. Forest Service. Nearly 97 percent of all wildland fires are extinguished during initial attack, a majority of them by local fire departments. The U.S. Forest Service estimates that local fire departments provide more than $36 billion per year in wildland fire suppression assistance.    The city and county of San Diego are no strangers to the threat of wildland fire. In 2003, 2007, and again in 2014, San Diego experienced fire sieges that resulted in hundreds of thousands of acres being burned, thousands of structures being destroyed, and tens of millions of dollars in damage.    The primary Federal agencies for wildland fire response are the Department of Interior and the U.S. Forest Service, which are responsible for fires on Federal lands. However, FEMA plays an important role in helping State and local agencies prepare, respond to, and recover from wildland fires on non-Federal land. Under FEMA's Fire Management Assistance Grant, FMAG, FEMA provides assistance in the form of 75 percent matching funds to help offset the cost to communities for the control of any fire on public or private forest land or grassland that threatens such destruction as would constitute a major disaster.    FEMA also provides hazard mitigation assistance through the Hazard Mitigation Grant Program. This funding can help States and local communities protect the public and property in advance of wildland fires occurring. Today, FEMA plays an important role in helping States and local communities address the threat of wildland fires. It does not duplicate nor replace wildland fire suppressions of the Department of Interior or U.S. Forest Service. However, we would like to recommend some policy changes to help FEMA play an even more beneficial role in the fight against wildland fires.    Number one, in a dynamic wildland fire environment, FEMA must use more flexibility when evaluating FMAG applications. FMAG applications must be submitted while a wildland fire is burning uncontrolled in a rapidly changing environment.    Last May, the city of San Diego submitted an FMAG application 6 hours into an uncontrolled wildland fire incident that met FMAG program criteria. The application was rejected due to it being submitted at a point when the fire's growth had slowed and was perceived by FEMA as less of a threat of a major disaster. Had it been received 2 hours sooner, approval was likely.    In the future, FEMA must take into consideration special circumstances that could compromise the timely submittal of FMAG applications when a threat to the community continues to exist. To do otherwise may unfairly burden local and State taxpayers.    Number two, Congress should allow FEMA funding to be used to mitigate the risks of post-wildland fire flooding. Long after a wildland fire is extinguished, the destruction of vegetation and the severity of the burned ground leaves communities vulnerable to the threat of mudslides and flash flooding. The IAFC has supported previous legislation that would allow States to receive post-fire mitigation assistance along with FMAG grants.    Three, FEMA should fully reimburse fire departments for interstate mutual aid deployments. When fire departments are deployed on intrastate or interstate mutual aid missions to wildland fires, they expect to be made whole. Unfortunately, this currently is not the case. For example, when a local fire department apparatus is committed to an emergency incident it is no longer available to that department. FEMA will only reimburse the department for 16 hours of that 24-hour day for this equipment after the first 48 hours. If fire departments are not fully reimbursed for their expenses, local government policymakers may not be as willing to send them to assist other communities in future situations.    Number four, Congress should stabilize funding for wildland fire prevention and suppression. In recent years, Federal fire agencies have seen wildland fire suppression costs exceed their budgets. The Department of Interior and U.S. Forest Service have been forced to transfer funding from other accounts to continue fighting wildland fires. This fire borrowing has depleted accounts aimed at activities like reducing hazardous fuels and prevent wildfires.    The IAFC supports Congress' efforts to address the wildland fire problem through the creation of the FLAME Fund and the National Cohesive Wildland Fire Management Strategy. We also have been supportive of legislation like H.R. 167, proposed by Representatives Simpson and Schrader, which would allocate the cost of suppressing the largest 1 percent of the Nation's wildland fires to the Disaster Relief Fund. Efforts to adequately cover the cost of Federal wildland suppression will allow the Department of Interior and U.S. Forest Service to also fund other programs designed to prevent future wildland fires.    In closing, I thank the committee for the opportunity to address the issue of FEMA's support of local and State governments and wildland fire response and recovery. The threat of wildland fire continues to grow more severe. FEMA plays an important role in helping communities prepare, respond to, and recover from that threat.    The IAFC looks forward to working with the committee to address these issues. I look forward to answering any questions that you may have.</t>
@@ -856,11 +826,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -880,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -908,11 +874,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -932,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -960,11 +922,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -984,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1012,11 +970,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1036,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1064,11 +1018,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1088,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1116,11 +1066,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1140,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1168,11 +1114,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1192,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1220,11 +1162,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1244,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1270,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1296,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1324,11 +1258,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1348,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1374,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1400,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1426,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1452,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1480,11 +1402,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1504,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1530,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1556,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1582,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1608,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1634,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1660,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1688,11 +1594,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1712,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1738,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1764,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1792,11 +1690,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1816,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1842,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1868,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1894,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1920,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
         <v>58</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1946,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1972,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1998,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2026,11 +1906,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2050,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2078,11 +1954,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2102,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2130,11 +2002,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2154,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2180,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2206,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2232,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2258,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2284,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2310,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2338,11 +2194,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2362,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G60" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2388,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2414,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G62" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2440,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2466,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>44</v>
-      </c>
-      <c r="G64" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2492,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2520,11 +2362,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2544,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2572,11 +2410,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2596,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2624,11 +2458,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2648,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2676,11 +2506,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2702,11 +2530,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2726,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2752,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2780,11 +2602,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2804,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2832,11 +2650,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2856,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2884,11 +2698,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2908,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2936,11 +2746,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2960,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2988,11 +2794,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3012,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3038,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>99</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3064,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3090,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3116,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3142,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3168,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3196,11 +2986,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3220,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3246,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3272,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3298,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3324,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>99</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3352,11 +3130,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3376,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>44</v>
-      </c>
-      <c r="G99" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3402,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3428,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
-      </c>
-      <c r="G101" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3456,11 +3226,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3480,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3506,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3534,11 +3298,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3558,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3586,11 +3346,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3610,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3638,11 +3394,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3662,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>99</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3690,11 +3442,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3714,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3742,11 +3490,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3766,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3792,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3818,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3846,11 +3586,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3870,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s">
-        <v>95</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3896,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>89</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3922,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>99</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3948,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3976,11 +3706,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4002,11 +3730,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg92845.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg92845.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Barletta</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Barletta. The subcommittee will come to order.    I would like to thank Chairman Shuster for the opportunity to serve again as chairman of this subcommittee.    Ranking Member Carson, welcome back.</t>
   </si>
   <si>
     <t>412258</t>
   </si>
   <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Chairman.</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Fugate</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fugate. Well, thank you, Chairman Barletta and Ranking Member Carson and other members of the committee. In my written statements, I talked about some of the things we have been working on since the Sandy Recovery Improvement Act passed. Mr. Chairman of this committee, I have to say, you helped us address many issues that have come up repeatedly.    First off, I have to recognize the fact that you provided us the authority to recognize the tribal governments as an entity that could deal directly with the President in requesting disaster declarations, something they had sought for a long time. This committee ensured that became part of the legislation, and we have implemented it.    You have also given us tools that we had identified through pilots and lessons learned in managing debris, but also in making sure that as we begin the process of rebuilding, we are able to speed up the process of identifying those large projects, obligating monies, and allowing more discretion to State and local officials on how to build back better. That was an important tool that we began using as far back as some damage from Hurricane Irene with the State of Vermont, and it has given us flexibility that States and local governments have asked for in building back better and building back to the future.    The trends and disasters are not surprising to me. With an aging infrastructure, a concentration of populations in highly vulnerable areas that fortunately don't have a lot of disasters, but when they do occur, the costs are substantial. Particularly, when you look at what happens when the number of public buildings that are under or uninsured are damaged or destroyed. I think things such as dealing with individual losses that weren't insured, dealing with debris cost, dealing with response cost are always going to be part of the formula.    But when you look at, most recently in Sandy, the billion dollars and more in some projects we are having to pay to rebuild structures, it is important for us to make sure that in the future we have built back those structures to where they are insurable and look at making sure that the insurance provisions are more strenuously applied and less opportunities to allow structures to come back for repeated assistance because they weren't insured.    We firmly believe that we should do more diligent work with our State and local partners to ensure that when we build back we just don't look at old data, we just don't use cost-benefit analysis, that don't account for the future. But we also think we need to engage the private sector more strongly in ensuring risk. And in those areas where the private sector cannot insure that risk, ask hard questions, as you have pointed out, should we build back where we were, should we build back the way it was, or do we need to change? Because if anything, we know that many areas are subject to repeated disasters.    I personally went into Arkansas last year to see damage from a tornado. I saw a school, fortunately not occupied, nearly completed, that was destroyed. I was informed by our staff from the regional office that that school was being rebuilt from a 2010 tornado where it had been destroyed. It was destroyed again.    What really troubled me was we did not have an opportunity or did not seek the opportunity to make sure that school had safe rooms in it. And we have committed to and have now established that in tornado-prone areas, when we are dealing with schools and other public structures, that we will find a way to make sure that we fund safe rooms to protect children during tornadoes.    So you have given us a lot of tools, many of which are still in the implementation phase. Some of them have not gone as fast as I would like. Part of it was the implementation and getting buy-in from our partners at the State and local level, but I am seeing early success. And I think it will be a good discussion to have with you and the committee over our findings, our challenges, and where success is taking place.    I firmly believe that the role of the Federal Government is to support and not supplant our local officials, that FEMA is a support agency, and the cost of disasters is a shared responsibility. But I do think it is appropriate that when disasters exceed the capabilities of State and local governments that we must be there to support them, not only the initial response but to ensure successful recovery.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -118,6 +136,12 @@
     <t>412621</t>
   </si>
   <si>
+    <t>Curbelo</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Curbelo. Thank you, Mr. Chairman.    Administrator Fugate, thank you for your presence here this morning, and thank you for your service to the people of Florida over so many years. We remember you very fondly and we miss you at times, so thank you very much.    I represent south Florida where a large portion of my district lives on or near the coast. One of the constant worries I hear from my constituents back home, especially in the Florida Keys, is the need to reform the National Flood Insurance Program. I am a cosponsor of the Flood Insurance Premium Parody Act, a bill which would extend the recent NFIP reforms to business properties and owner-occupied second homes. And I feel it is critical these properties receive the same relief already provided to residential properties and single-family homes afforded to them under the Biggert-Waters Act of 2012.    Can you share your thoughts on what best can be done to provide affordable flood insurance for my constituents? Do you feel that we should apply to commercial properties and second homes the same formula for yearly rate increases received by residential properties?</t>
   </si>
   <si>
@@ -139,6 +163,12 @@
     <t>400295</t>
   </si>
   <si>
+    <t>Norton</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Barletta. I am glad to see you back in the chair.    Mr. Fugate, the Nation's Capital barely escaped Sandy. We were very grateful, just like we escaped the snowfall this time. All the scientists tell us that we are headed for major disasters. They tell us that there is no longer debate about whether there is climate change but only about how to manage climate change. And so I am interested in issues, and I will be talking to the next panel about predisaster mitigation. The Member was asking about Florida. I noticed that they are building right in the ocean virtually but trying to do some predisaster mitigation as they do.    FEMA has been helpful here in what we have been trying to do with the so-called 17th Street levee on the Mall. Without that levee, the Washington Monument and indeed the entire monumental core would be exposed to horrific flooding. Rebuilding downtown Washington and the monumental core, and those steps would have been taken. I certainly hope, since steps have been taken--and that levee was done before the final word was in on climate change--I would be interested in your view as to whether or not you think that levee could forestall a seriously Sandy-like storm.    But I am also, because it has taken so long, interested in the drawing of the flood maps. As I understand, and this is what gives Government a bad name, the work of the Army Corps of Engineers for certification is done separately from FEMA or from other agencies. Why can't that work be done concurrently so that they look to see that the levee is constructed properly and they go get on with the next step, rather than in some sequential fashion which assures it will be delayed?</t>
   </si>
   <si>
@@ -178,6 +208,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Administrator Fugate, I recall, as a county commissioner, following either before or just following a storm of a significant magnitude, speaking with my emergency services department and them describing the various obligations that they needed to undertake to apply for and ultimately process an application for FEMA disaster assistance grants or grant.    The question is, in looking at the recent GAO report, FEMA was criticized for the significant costs they incurred to administer disaster assistant grants. My question, what is FEMA doing to reduce its own administrative costs as well as the administrative burden often placed on States and locals who are trying to get the assistance to where it is needed for recovery?</t>
   </si>
   <si>
@@ -265,6 +301,9 @@
     <t xml:space="preserve">    Mr. Barletta. Thank you, Mr. Fugate, for your testimony today. Your comments have been helpful to today's discussion. And I look forward to working with you on our legislation. Your input and support is vital to getting it right and getting it signed into law. So thank you.    We will now call our second panel. And I remind you of the subcommittee's request to limit your oral testimony to 5 minutes. And we will let our panel get in place.    Mr. McCarthy, you may proceed.</t>
   </si>
   <si>
+    <t>McCarthy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McCarthy. Thank you, Mr. Chairman. I am privileged to appear before you today----</t>
   </si>
   <si>
@@ -280,6 +319,9 @@
     <t xml:space="preserve">    Mr. Barletta. Unfortunately, we are going to have to pass that one over there. Thank you.</t>
   </si>
   <si>
+    <t>Paulison</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Paulison. Now we will see if we can get this one to work.    Anyway, the leadership this subcommittee and Chairman Shuster have shown on these tough issues is critical. Your mission is clear: We must find a way to bend the cost curve of disasters for American taxpayers. In pursuit of this mission, I believe we can save additional lives and do a much better job of protecting property.    My name is David Paulison. I am the senior partner of Global Emergency Solutions. I was proud to have spent 7 years in the Federal service of our Nation, and I served as the FEMA Administrator from 2005 to 2009. I began my 30-year career as a rescue firefighter and rose through the ranks to become the chief of the Miami-Dade Fire Department. As a result, I have had a front-row seat as to how we as a Nation prepare for and deal with disasters.    While I have seen many tremendous public servants at work, I have also witnessed unfortunate policy errors and wasted taxpayer dollars. In most cases, this waste was a result of insufficient investment in mitigation before the disaster hit. Not enough resources are being allocated in predisaster mitigation.    I believe this new Congress has a golden opportunity to advance a bipartisan natural disaster strategy that would better protect the American people, property, and save taxpayer dollars. With the Senate and the House of Representatives working together across party lines, now is the time to address the failed status quo of waiting for storms to hit and then passing massive supplemental appropriation bills.    Director Fugate has done a tremendous job of fostering resiliency and a community-oriented approach to emergency management since he took the reins of FEMA. However, I am sure even Director Fugate would admit there is still much work to be done to build a more resilient country by shifting more money to predisaster Federal incentive programs. Hopefully, understanding the realities of the exploding costs can serve as a motivator.    Mr. Chairman, any attempt to change the status quo must ultimately begin with an understanding of the nature of the problem. This is why I believe your subcommittee's work can play a major role. First, let me describe the nature of the problem we face. And I brought just two slides along.    According to FEMA, Federal major disaster declarations have jumped from a yearly average of 23 under President Reagan to an average of 65 under President Obama. The trend is undeniable but also nonpartisan, as the average number of disaster declarations per year has risen under President George H.W. Bush, President Clinton, and President George W. Bush.</t>
   </si>
   <si>
@@ -289,10 +331,16 @@
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Paulison.    Mr. Koon, you may proceed.</t>
   </si>
   <si>
+    <t>Koon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Koon. Thank you, Chairman Barletta, Ranking Member Carson, and members of the subcommittee, for holding this hearing today.    The statement for the record we submitted goes into specific details on many issues regarding how to lessen the impacts and costs of disasters. But for now I will cover the current state of disasters, efforts we are working on with FEMA, and ongoing concerns with the systems of management costs and deobligations.    As you have already heard, the number and nature of presidentially declared disasters has varied widely over time. Of course, examining Presidential declarations provides only a glimpse of the true disaster response activity in this country. The majority of events are handled at the State or local level and do not warrant Federal assistance. In fiscal year 2013, there were 205 gubernatorial declarations and over 18,000 events requiring State assets. In addition to that, local and tribal governments responded to nearly 31,000 additional events that year. Without a strong emergency management system at the State, local and tribal levels, many of the nearly 50,000 State and local responses would falter or require Federal support.    That Federal support comes in the form of public assistance, which amounts to half of the total funds allocated to the Disaster Relief Fund. In order to ensure the most effective use of those funds and in response to numerous Government audits, last year FEMA initiated an internal study of its PA program. In the coming weeks, the agency will share data from the study with the States, with the desired goal of an agreed-upon, redesigned PA program that meets the needs of all stakeholders.    A redesigned PA program which streamlines efforts will also assist in reducing and appropriately allocating those administrative costs identified by GAO in a report last month. The report highlights the continuing increase of FEMA's administrative costs as a percentage of the DRF, which averaged 13 percent over the last 10 fiscal years, while less than 2 percent was apportioned for grantees and subgrantees. This has been an area of great frustration and concern to the States and certainly needs further examination.    We hope that an improved PA process will also reduce the opportunity for future audits and deobligations by simplifying and standardizing efforts across the country and reducing the time necessary to close disasters. The current rate of deobligations causes significant economic hardship to the States and communities that have expended those funds long ago and requires significant staff time that would be better spent preparing for future disasters.    Reducing administrative expenditures from the DRF would also allow the Nation to explore alternative uses for these funds, such as increasing resiliency by identifying, incentivizing, and funding additional mitigation opportunities across the country. These resiliency efforts will ultimately reduce our disaster costs in the long term.    NEMA intends to continue conversations on all of these issues at our midyear forum in March, utilizing the combined efforts of our Legislative and Response and Recovery Committees to explore alternatives and make recommendations to you.    The subcommittee and Congress as a whole have gone to great lengths to continually try and improve disaster response processes. Efforts such as the Sandy Recovery Improvement Act and H.R. 3300, which supported programs like EMAC, USAR teams, and IPAWS, provide opportunities to drive down the cost of disasters. But without a comprehensive look at some of our administrative issues as well, we will continue to falter in our mission.    Only through an effective response and subsequent recovery can we work toward building more resilient communities, reducing the overall cost of disasters to States and the Federal Government, and ultimately save more lives and property from damage.    I look forward to our continued partnership in these efforts and welcome any questions you have for me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you for your testimony, Mr. Koon.    Mr. Fennessy, you may proceed.</t>
+  </si>
+  <si>
+    <t>Fennessy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Fennessy. Thank you. Good morning, Chairman Barletta, Ranking Member Carson, and members of the subcommittee.    I am Brian Fennessy, assistant fire chief of emergency operations of the San Diego Fire-Rescue Department. Today, I am testifying on behalf of the International Association of Fire Chiefs, where I serve on their Wildland Fire Policy Committee. Thank you for the opportunity to discuss FEMA's role in helping communities respond to and recover from wildland fires.    In 2013, wildland fires impacted every State in the Nation. There were more than 47,500 wildland fires in the United States. They burned roughly 4.3 million acres. These fires cost the Federal Government over $1.7 billion to extinguish.    Local fire departments respond to most wildland fire incident. For fires on Federal lands, they cooperate with the U.S. Department of Interior and the U.S. Department of Agriculture's U.S. Forest Service. Nearly 97 percent of all wildland fires are extinguished during initial attack, a majority of them by local fire departments. The U.S. Forest Service estimates that local fire departments provide more than $36 billion per year in wildland fire suppression assistance.    The city and county of San Diego are no strangers to the threat of wildland fire. In 2003, 2007, and again in 2014, San Diego experienced fire sieges that resulted in hundreds of thousands of acres being burned, thousands of structures being destroyed, and tens of millions of dollars in damage.    The primary Federal agencies for wildland fire response are the Department of Interior and the U.S. Forest Service, which are responsible for fires on Federal lands. However, FEMA plays an important role in helping State and local agencies prepare, respond to, and recover from wildland fires on non-Federal land. Under FEMA's Fire Management Assistance Grant, FMAG, FEMA provides assistance in the form of 75 percent matching funds to help offset the cost to communities for the control of any fire on public or private forest land or grassland that threatens such destruction as would constitute a major disaster.    FEMA also provides hazard mitigation assistance through the Hazard Mitigation Grant Program. This funding can help States and local communities protect the public and property in advance of wildland fires occurring. Today, FEMA plays an important role in helping States and local communities address the threat of wildland fires. It does not duplicate nor replace wildland fire suppressions of the Department of Interior or U.S. Forest Service. However, we would like to recommend some policy changes to help FEMA play an even more beneficial role in the fight against wildland fires.    Number one, in a dynamic wildland fire environment, FEMA must use more flexibility when evaluating FMAG applications. FMAG applications must be submitted while a wildland fire is burning uncontrolled in a rapidly changing environment.    Last May, the city of San Diego submitted an FMAG application 6 hours into an uncontrolled wildland fire incident that met FMAG program criteria. The application was rejected due to it being submitted at a point when the fire's growth had slowed and was perceived by FEMA as less of a threat of a major disaster. Had it been received 2 hours sooner, approval was likely.    In the future, FEMA must take into consideration special circumstances that could compromise the timely submittal of FMAG applications when a threat to the community continues to exist. To do otherwise may unfairly burden local and State taxpayers.    Number two, Congress should allow FEMA funding to be used to mitigate the risks of post-wildland fire flooding. Long after a wildland fire is extinguished, the destruction of vegetation and the severity of the burned ground leaves communities vulnerable to the threat of mudslides and flash flooding. The IAFC has supported previous legislation that would allow States to receive post-fire mitigation assistance along with FMAG grants.    Three, FEMA should fully reimburse fire departments for interstate mutual aid deployments. When fire departments are deployed on intrastate or interstate mutual aid missions to wildland fires, they expect to be made whole. Unfortunately, this currently is not the case. For example, when a local fire department apparatus is committed to an emergency incident it is no longer available to that department. FEMA will only reimburse the department for 16 hours of that 24-hour day for this equipment after the first 48 hours. If fire departments are not fully reimbursed for their expenses, local government policymakers may not be as willing to send them to assist other communities in future situations.    Number four, Congress should stabilize funding for wildland fire prevention and suppression. In recent years, Federal fire agencies have seen wildland fire suppression costs exceed their budgets. The Department of Interior and U.S. Forest Service have been forced to transfer funding from other accounts to continue fighting wildland fires. This fire borrowing has depleted accounts aimed at activities like reducing hazardous fuels and prevent wildfires.    The IAFC supports Congress' efforts to address the wildland fire problem through the creation of the FLAME Fund and the National Cohesive Wildland Fire Management Strategy. We also have been supportive of legislation like H.R. 167, proposed by Representatives Simpson and Schrader, which would allocate the cost of suppressing the largest 1 percent of the Nation's wildland fires to the Disaster Relief Fund. Efforts to adequately cover the cost of Federal wildland suppression will allow the Department of Interior and U.S. Forest Service to also fund other programs designed to prevent future wildland fires.    In closing, I thank the committee for the opportunity to address the issue of FEMA's support of local and State governments and wildland fire response and recovery. The threat of wildland fire continues to grow more severe. FEMA plays an important role in helping communities prepare, respond to, and recover from that threat.    The IAFC looks forward to working with the committee to address these issues. I look forward to answering any questions that you may have.</t>
@@ -776,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -806,2933 +854,3438 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G39" t="s">
+        <v>64</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>64</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>64</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>65</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>17</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
       <c r="H58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G60" t="s">
+        <v>49</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G62" t="s">
+        <v>49</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G64" t="s">
+        <v>49</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s">
+        <v>101</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>95</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>105</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>95</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>101</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>17</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>101</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>105</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G99" t="s">
+        <v>49</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>95</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>95</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>95</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>105</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>108</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>108</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>95</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>105</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>108</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg92845.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg92845.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412469</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Barletta</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412258</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Carson</t>
   </si>
   <si>
@@ -134,6 +143,9 @@
   </si>
   <si>
     <t>412621</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Curbelo</t>
@@ -824,7 +836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +844,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,3435 +869,3696 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>105</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s">
-        <v>108</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>112</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>95</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>95</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>99</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>95</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>99</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>101</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>105</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>101</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>105</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>101</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>105</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>101</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>105</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>105</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>109</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>95</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>99</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>95</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>99</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>101</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>105</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>101</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>105</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>95</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>99</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>105</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>109</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>108</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>112</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s">
-        <v>108</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>112</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>101</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>105</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>95</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>99</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>105</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>109</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>108</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>112</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
